--- a/DATA_goal/Junction_Flooding_458.xlsx
+++ b/DATA_goal/Junction_Flooding_458.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44789.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44789.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.61</v>
+        <v>36.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.71</v>
+        <v>47.12</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.83</v>
+        <v>198.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.72</v>
+        <v>37.15</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.6</v>
+        <v>25.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.13</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.16</v>
+        <v>41.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44789.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.11</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="P4" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44789.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_458.xlsx
+++ b/DATA_goal/Junction_Flooding_458.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44789.54861111111</v>
+        <v>45139.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44789.55555555555</v>
+        <v>45139.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.62</v>
+        <v>21.139</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.88</v>
+        <v>15.167</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.39</v>
+        <v>1.968</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.13</v>
+        <v>45.737</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.3</v>
+        <v>37.222</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.1</v>
+        <v>16.635</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.12</v>
+        <v>63.468</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.34</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.25</v>
+        <v>11.164</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.66</v>
+        <v>16.545</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.58</v>
+        <v>18.312</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.42</v>
+        <v>19.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.24</v>
+        <v>5.314</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.58</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.77</v>
+        <v>23.396</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.5</v>
+        <v>14.113</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>1.204</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.28</v>
+        <v>244.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.15</v>
+        <v>46.269</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.99</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.97</v>
+        <v>30.859</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.27</v>
+        <v>16.077</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.79</v>
+        <v>2.746</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.13</v>
+        <v>31.003</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.42</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>12.108</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.53</v>
+        <v>14.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.64</v>
+        <v>19.056</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.59</v>
+        <v>57.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.35</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.31</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44789.5625</v>
+        <v>45139.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.58</v>
+        <v>20.658</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.1</v>
+        <v>15.056</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>1.463</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.34</v>
+        <v>44.824</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.83</v>
+        <v>36.609</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.28</v>
+        <v>16.258</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.11</v>
+        <v>63.625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.67</v>
+        <v>25.014</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.84</v>
+        <v>11.023</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.15</v>
+        <v>16.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.24</v>
+        <v>17.985</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.38</v>
+        <v>18.897</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.8</v>
+        <v>5.193</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.65</v>
+        <v>16.166</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.5</v>
+        <v>22.944</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.69</v>
+        <v>13.716</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.087</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.27</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.56</v>
+        <v>238.76</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.34</v>
+        <v>45.233</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.73</v>
+        <v>14.922</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.62</v>
+        <v>30.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.61</v>
+        <v>15.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.35</v>
+        <v>2.519</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.87</v>
+        <v>30.762</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.73</v>
+        <v>13.181</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.04</v>
+        <v>11.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.33</v>
+        <v>13.811</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.58</v>
+        <v>18.787</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.45</v>
+        <v>57.742</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.56</v>
+        <v>8.362</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.83</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44789.56944444445</v>
+        <v>45139.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.37</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.85</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.96</v>
+        <v>53.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.55</v>
+        <v>43.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.39</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.57</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.43</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.86</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.17</v>
+        <v>19.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.52</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.85</v>
+        <v>22.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.77</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.74</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.31</v>
+        <v>16.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.3</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.38</v>
+        <v>53.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.42</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.83</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.55</v>
+        <v>18.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>36.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.28</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.15</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.85</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.97</v>
+        <v>22.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.79</v>
+        <v>67.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.11</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44789.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.36</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.38</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_458.xlsx
+++ b/DATA_goal/Junction_Flooding_458.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -469,10 +469,10 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45139.50694444445</v>
+        <v>44789.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.217</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.901</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.042</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.812</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.818</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.123</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.986</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.269</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.076</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.742</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.827</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.038</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.994</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.249</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.547</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.881</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.553</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.055</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.312</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.261</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.125</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.047</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.565</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.557</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.647</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.354</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45139.51388888889</v>
+        <v>44789.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.139</v>
+        <v>17.62</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.167</v>
+        <v>13.882</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.968</v>
+        <v>0.394</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>45.737</v>
+        <v>36.126</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>37.222</v>
+        <v>32.299</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.635</v>
+        <v>13.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63.468</v>
+        <v>47.123</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.596</v>
+        <v>20.339</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.164</v>
+        <v>9.247999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.545</v>
+        <v>14.661</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.312</v>
+        <v>15.579</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.19</v>
+        <v>16.421</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.314</v>
+        <v>4.237</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.542</v>
+        <v>13.576</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.396</v>
+        <v>18.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.113</v>
+        <v>10.497</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.595</v>
+        <v>0.733</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.204</v>
+        <v>0.739</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.48</v>
+        <v>198.278</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.269</v>
+        <v>37.154</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.269</v>
+        <v>12.991</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.859</v>
+        <v>25.971</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.077</v>
+        <v>13.268</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.746</v>
+        <v>1.788</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.003</v>
+        <v>23.128</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.487</v>
+        <v>10.415</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.108</v>
+        <v>9.962</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.21</v>
+        <v>11.528</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.056</v>
+        <v>16.636</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.69</v>
+        <v>41.593</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.516999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.09</v>
+        <v>15.306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45139.52083333334</v>
+        <v>44789.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.658</v>
+        <v>3.582</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.056</v>
+        <v>3.104</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.463</v>
+        <v>0.013</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.824</v>
+        <v>6.341</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.609</v>
+        <v>6.834</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.258</v>
+        <v>2.284</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.625</v>
+        <v>16.107</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.014</v>
+        <v>3.673</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.023</v>
+        <v>1.842</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.31</v>
+        <v>3.153</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.985</v>
+        <v>3.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.897</v>
+        <v>3.376</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.193</v>
+        <v>0.802</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.166</v>
+        <v>2.649</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.944</v>
+        <v>3.498</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.716</v>
+        <v>1.694</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.087</v>
+        <v>0.437</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.273</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>238.76</v>
+        <v>32.563</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>45.233</v>
+        <v>7.337</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.922</v>
+        <v>2.729</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.29</v>
+        <v>5.625</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.84</v>
+        <v>2.608</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.519</v>
+        <v>0.352</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.762</v>
+        <v>6.865</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.181</v>
+        <v>1.726</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.76</v>
+        <v>2.044</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.811</v>
+        <v>2.329</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.787</v>
+        <v>3.578</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.742</v>
+        <v>14.448</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.362</v>
+        <v>1.556</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.656</v>
+        <v>2.828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45139.52777777778</v>
+        <v>44789.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.5</v>
+        <v>7.371</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.06</v>
+        <v>5.846</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.146</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>53.23</v>
+        <v>14.964</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>43.65</v>
+        <v>13.545</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>19.28</v>
+        <v>5.387</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.79000000000001</v>
+        <v>21.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.67</v>
+        <v>8.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.17</v>
+        <v>3.861</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.53</v>
+        <v>6.175</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>21.37</v>
+        <v>6.517</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.51</v>
+        <v>6.848</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.16</v>
+        <v>1.772</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>19.17</v>
+        <v>5.644</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>27.29</v>
+        <v>7.743</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16.15</v>
+        <v>4.305</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.373</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.351</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>284.54</v>
+        <v>78.298</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>53.63</v>
+        <v>15.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.7</v>
+        <v>5.417</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>36.06</v>
+        <v>10.831</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.89</v>
+        <v>5.554</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.82</v>
+        <v>0.743</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>36.34</v>
+        <v>9.879</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.63</v>
+        <v>4.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.87</v>
+        <v>4.146</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.3</v>
+        <v>4.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.38</v>
+        <v>6.974</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>67.86</v>
+        <v>18.789</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>3.105</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>22.13</v>
+        <v>6.346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44789.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>78.36</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_458.xlsx
+++ b/DATA_goal/Junction_Flooding_458.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -469,10 +469,10 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44789.54861111111</v>
+        <v>45139.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44789.55555555555</v>
+        <v>45139.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.62</v>
+        <v>21.139</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.882</v>
+        <v>15.167</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.394</v>
+        <v>1.968</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.126</v>
+        <v>45.737</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.299</v>
+        <v>37.222</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.1</v>
+        <v>16.635</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.123</v>
+        <v>63.468</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.339</v>
+        <v>25.596</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.247999999999999</v>
+        <v>11.164</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.661</v>
+        <v>16.545</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.579</v>
+        <v>18.312</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.421</v>
+        <v>19.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.237</v>
+        <v>5.314</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.576</v>
+        <v>16.542</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.77</v>
+        <v>23.396</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.497</v>
+        <v>14.113</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.733</v>
+        <v>1.595</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.739</v>
+        <v>1.204</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.278</v>
+        <v>244.48</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.154</v>
+        <v>46.269</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.991</v>
+        <v>15.269</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.971</v>
+        <v>30.859</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.268</v>
+        <v>16.077</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.788</v>
+        <v>2.746</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.128</v>
+        <v>31.003</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.415</v>
+        <v>13.487</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.962</v>
+        <v>12.108</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.528</v>
+        <v>14.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.636</v>
+        <v>19.056</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>41.593</v>
+        <v>57.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.35</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.306</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44789.5625</v>
+        <v>45139.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.582</v>
+        <v>20.658</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.104</v>
+        <v>15.056</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.013</v>
+        <v>1.463</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.341</v>
+        <v>44.824</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.834</v>
+        <v>36.609</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.284</v>
+        <v>16.258</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.107</v>
+        <v>63.625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.673</v>
+        <v>25.014</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.842</v>
+        <v>11.023</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.153</v>
+        <v>16.31</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.24</v>
+        <v>17.985</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.376</v>
+        <v>18.897</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.802</v>
+        <v>5.193</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.649</v>
+        <v>16.166</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.498</v>
+        <v>22.944</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.694</v>
+        <v>13.716</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.437</v>
+        <v>1.087</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.273</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.563</v>
+        <v>238.76</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.337</v>
+        <v>45.233</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.729</v>
+        <v>14.922</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.625</v>
+        <v>30.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.608</v>
+        <v>15.84</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.352</v>
+        <v>2.519</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.865</v>
+        <v>30.762</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.726</v>
+        <v>13.181</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.044</v>
+        <v>11.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.329</v>
+        <v>13.811</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.578</v>
+        <v>18.787</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.448</v>
+        <v>57.742</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.556</v>
+        <v>8.362</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.828</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44789.56944444445</v>
+        <v>45139.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.371</v>
+        <v>24.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.846</v>
+        <v>18.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.146</v>
+        <v>1.38</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.964</v>
+        <v>53.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.545</v>
+        <v>43.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.387</v>
+        <v>19.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.57</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.43</v>
+        <v>29.67</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.861</v>
+        <v>13.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.175</v>
+        <v>19.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.517</v>
+        <v>21.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.848</v>
+        <v>22.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.772</v>
+        <v>6.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.644</v>
+        <v>19.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.743</v>
+        <v>27.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.305</v>
+        <v>16.15</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.373</v>
+        <v>0.88</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.351</v>
+        <v>0.95</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.298</v>
+        <v>284.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.38</v>
+        <v>53.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.417</v>
+        <v>17.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.831</v>
+        <v>36.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.554</v>
+        <v>18.89</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.743</v>
+        <v>2.82</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.879</v>
+        <v>36.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.28</v>
+        <v>15.63</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.146</v>
+        <v>13.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.85</v>
+        <v>16.3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.974</v>
+        <v>22.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.789</v>
+        <v>67.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.105</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.346</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44789.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>22.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>78.36</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.38</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>
